--- a/file.xlsx
+++ b/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" state="visible" r:id="rId3"/>
@@ -295,14 +295,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.48"/>
   </cols>
   <sheetData>
@@ -352,7 +352,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
